--- a/backend/server/API Meal Planner.xlsx
+++ b/backend/server/API Meal Planner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgilb\Documents\Code\mealplanner\backend\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/curtgilbert/Documents/code/mealplanner/backend/server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7CB2917-E69B-4BAC-B561-8670204E868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0F142B-34AD-F649-BFB3-3AC0E67ACB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21345" yWindow="3105" windowWidth="21555" windowHeight="27285" xr2:uid="{AD8AD2A3-0E0D-462F-9347-B53D302FEE37}"/>
+    <workbookView xWindow="43580" yWindow="1860" windowWidth="52900" windowHeight="26920" xr2:uid="{AD8AD2A3-0E0D-462F-9347-B53D302FEE37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
   <si>
     <t>Recipe</t>
   </si>
@@ -77,9 +77,6 @@
     <t>getRecipe</t>
   </si>
   <si>
-    <t>groupRecipeIngredients</t>
-  </si>
-  <si>
     <t>getRecipes</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>connectNutritionToRecipe()</t>
   </si>
   <si>
-    <t>uploadRecipePhoto()</t>
-  </si>
-  <si>
     <t>createExpirationRule()</t>
   </si>
   <si>
@@ -191,7 +185,124 @@
     <t>recipeURL</t>
   </si>
   <si>
-    <t>File</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>All fields minus recipe ingredients, photos</t>
+  </si>
+  <si>
+    <t>groupRecipeIngredients()</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>deleteRecipe</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>deleteRecipeIngredient</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>RecipeIngredient</t>
+  </si>
+  <si>
+    <t>verifyRecipe</t>
+  </si>
+  <si>
+    <t>groupName</t>
+  </si>
+  <si>
+    <t>ungroupRecipeIngredients</t>
+  </si>
+  <si>
+    <t>editRecipeIngredientGroup</t>
+  </si>
+  <si>
+    <t>getRecipeIngredients</t>
+  </si>
+  <si>
+    <t>RecipeID</t>
+  </si>
+  <si>
+    <t>EditRecipeInput</t>
+  </si>
+  <si>
+    <t>editRecipeIngredient</t>
+  </si>
+  <si>
+    <t>parseRecipeIngredient</t>
+  </si>
+  <si>
+    <t>Single ingredient line, returns parsed ingredient</t>
+  </si>
+  <si>
+    <t>createRecipeIngredient</t>
+  </si>
+  <si>
+    <t>updateAllRecipeIngredients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingredients, InredientToDelete, ingredientToGroup </t>
+  </si>
+  <si>
+    <t>RecipeIngredientGroup</t>
+  </si>
+  <si>
+    <t>Courses, Category, Cuisines</t>
+  </si>
+  <si>
+    <t>CRUD operations</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>deletePhoto</t>
+  </si>
+  <si>
+    <t>markPhotoAsPrimary</t>
+  </si>
+  <si>
+    <t>addPhoto</t>
+  </si>
+  <si>
+    <t>PriceHistory</t>
+  </si>
+  <si>
+    <t>ExpirationRules</t>
+  </si>
+  <si>
+    <t>connectRuleToIngredient()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingredientID, </t>
+  </si>
+  <si>
+    <t>createAndConnectToIngredient()</t>
+  </si>
+  <si>
+    <t>getImports()</t>
+  </si>
+  <si>
+    <t>getImportRecords()</t>
   </si>
 </sst>
 </file>
@@ -560,310 +671,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6E43CA-06C3-4C85-A595-153EAD21A8CA}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="5" width="53.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/backend/server/API Meal Planner.xlsx
+++ b/backend/server/API Meal Planner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/curtgilbert/Documents/code/mealplanner/backend/server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0F142B-34AD-F649-BFB3-3AC0E67ACB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8833D5F-530A-604F-A91E-E8BF1BFAB7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43580" yWindow="1860" windowWidth="52900" windowHeight="26920" xr2:uid="{AD8AD2A3-0E0D-462F-9347-B53D302FEE37}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="26040" windowHeight="17500" xr2:uid="{AD8AD2A3-0E0D-462F-9347-B53D302FEE37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -326,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +336,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6E43CA-06C3-4C85-A595-153EAD21A8CA}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -807,7 +813,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>79</v>
       </c>
       <c r="C11" t="s">
@@ -815,7 +821,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>80</v>
       </c>
       <c r="C12" t="s">
@@ -823,7 +829,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>81</v>
       </c>
       <c r="C13" t="s">
@@ -849,7 +855,7 @@
       <c r="A17" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>70</v>
       </c>
       <c r="C17" t="s">
@@ -863,7 +869,7 @@
       <c r="A18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>73</v>
       </c>
       <c r="C18" t="s">
@@ -877,7 +883,7 @@
       <c r="A19" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
@@ -888,7 +894,7 @@
       <c r="A20" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>66</v>
       </c>
       <c r="C20" t="s">
@@ -1027,7 +1033,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C34" t="s">
@@ -1038,7 +1044,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C35" t="s">
@@ -1068,7 +1074,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C38" t="s">
@@ -1081,7 +1087,7 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C40" t="s">

--- a/backend/server/API Meal Planner.xlsx
+++ b/backend/server/API Meal Planner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/curtgilbert/Documents/code/mealplanner/backend/server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgilb\Documents\Code\mealplanner\backend\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8833D5F-530A-604F-A91E-E8BF1BFAB7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02681E2-7A60-4636-94E2-3232CE48C0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="26040" windowHeight="17500" xr2:uid="{AD8AD2A3-0E0D-462F-9347-B53D302FEE37}"/>
+    <workbookView xWindow="51630" yWindow="-2295" windowWidth="21555" windowHeight="32310" xr2:uid="{AD8AD2A3-0E0D-462F-9347-B53D302FEE37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
   <si>
     <t>Recipe</t>
   </si>
@@ -215,9 +215,6 @@
     <t>U</t>
   </si>
   <si>
-    <t>deleteRecipeIngredient</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -242,27 +239,15 @@
     <t>RecipeID</t>
   </si>
   <si>
-    <t>EditRecipeInput</t>
-  </si>
-  <si>
-    <t>editRecipeIngredient</t>
-  </si>
-  <si>
     <t>parseRecipeIngredient</t>
   </si>
   <si>
     <t>Single ingredient line, returns parsed ingredient</t>
   </si>
   <si>
-    <t>createRecipeIngredient</t>
-  </si>
-  <si>
     <t>updateAllRecipeIngredients</t>
   </si>
   <si>
-    <t xml:space="preserve">ingredients, InredientToDelete, ingredientToGroup </t>
-  </si>
-  <si>
     <t>RecipeIngredientGroup</t>
   </si>
   <si>
@@ -303,6 +288,12 @@
   </si>
   <si>
     <t>getImportRecords()</t>
+  </si>
+  <si>
+    <t>addRecipeIngredient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingredients, ingredientToAdd, IngredientToEdit, InredientToDelete, ingredientToGroup </t>
   </si>
 </sst>
 </file>
@@ -381,9 +372,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -421,7 +412,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -527,7 +518,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -669,7 +660,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -677,20 +668,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6E43CA-06C3-4C85-A595-153EAD21A8CA}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="5" width="53.83203125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="5" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -707,12 +698,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -723,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -737,7 +728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -751,7 +742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -765,7 +756,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -779,9 +770,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -793,12 +784,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -807,415 +798,390 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
-      <c r="E29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
         <v>11</v>
       </c>
-      <c r="E32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="2" t="s">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
         <v>8</v>
       </c>
     </row>
